--- a/SATIM/DataSpreadsheets/Solar, Wind, and Battery Technology Costs and Performance (Ireland, 2018).xlsx
+++ b/SATIM/DataSpreadsheets/Solar, Wind, and Battery Technology Costs and Performance (Ireland, 2018).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OLD PC Desktop\Desktop\CER\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE\SATIM\DataSpreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{E9FA13C7-FE1E-4EA4-9BB6-05A2D59246E6}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E025C4E3-1968-4B2F-BC4D-E811B0CE1396}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11085" windowHeight="7530" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1155" yWindow="1215" windowWidth="28770" windowHeight="15600" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PV &amp; Wind Costs and Learning" sheetId="10" r:id="rId1"/>
@@ -25,7 +25,18 @@
   <definedNames>
     <definedName name="_Hlk496009520" localSheetId="7">'Li-Ion Battery Pack Projections'!$A$34</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -99,7 +110,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="206">
   <si>
     <t>CSIRO Base</t>
   </si>
@@ -726,12 +737,25 @@
   <si>
     <t>DISCLAIMER: This workbook is still in a draft form with potentially incomplete assumptions, untidy worksheets, or minor errors and duplications in places.</t>
   </si>
+  <si>
+    <t>NREL 2018</t>
+  </si>
+  <si>
+    <t>Exchange rate (from currency deflator workbook from 2018$ to 2015 ZAR)</t>
+  </si>
+  <si>
+    <t>Jan 2019 R/kW</t>
+  </si>
+  <si>
+    <t>CSIR 2020</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="11">
+  <numFmts count="12">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
     <numFmt numFmtId="166" formatCode="0.00000"/>
@@ -1642,7 +1666,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="172" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="144">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1917,6 +1941,10 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="45">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -41278,7 +41306,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{53640926-AAD7-44d8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:wpi="http://schemas.microsoft.com/office/word/2010/wordprocessingInk" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:am3d="http://schemas.microsoft.com/office/drawing/2017/model3d" xmlns:aink="http://schemas.microsoft.com/office/drawing/2016/ink" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx8="http://schemas.microsoft.com/office/drawing/2016/5/14/chartex" xmlns:cx7="http://schemas.microsoft.com/office/drawing/2016/5/13/chartex" xmlns:cx6="http://schemas.microsoft.com/office/drawing/2016/5/12/chartex" xmlns:cx5="http://schemas.microsoft.com/office/drawing/2016/5/11/chartex" xmlns:cx4="http://schemas.microsoft.com/office/drawing/2016/5/10/chartex" xmlns:cx3="http://schemas.microsoft.com/office/drawing/2016/5/9/chartex" xmlns:cx2="http://schemas.microsoft.com/office/drawing/2015/10/21/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:wpc="http://schemas.microsoft.com/office/word/2010/wordprocessingCanvas"/>
+            <a14:shadowObscured xmlns:wpc="http://schemas.microsoft.com/office/word/2010/wordprocessingCanvas" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx2="http://schemas.microsoft.com/office/drawing/2015/10/21/chartex" xmlns:cx3="http://schemas.microsoft.com/office/drawing/2016/5/9/chartex" xmlns:cx4="http://schemas.microsoft.com/office/drawing/2016/5/10/chartex" xmlns:cx5="http://schemas.microsoft.com/office/drawing/2016/5/11/chartex" xmlns:cx6="http://schemas.microsoft.com/office/drawing/2016/5/12/chartex" xmlns:cx7="http://schemas.microsoft.com/office/drawing/2016/5/13/chartex" xmlns:cx8="http://schemas.microsoft.com/office/drawing/2016/5/14/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:aink="http://schemas.microsoft.com/office/drawing/2016/ink" xmlns:am3d="http://schemas.microsoft.com/office/drawing/2017/model3d" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wpi="http://schemas.microsoft.com/office/word/2010/wordprocessingInk" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -41342,7 +41370,7 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{53640926-AAD7-44d8-BBD7-CCE9431645EC}">
-            <a14:shadowObscured xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns="" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:wpi="http://schemas.microsoft.com/office/word/2010/wordprocessingInk" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:am3d="http://schemas.microsoft.com/office/drawing/2017/model3d" xmlns:aink="http://schemas.microsoft.com/office/drawing/2016/ink" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx8="http://schemas.microsoft.com/office/drawing/2016/5/14/chartex" xmlns:cx7="http://schemas.microsoft.com/office/drawing/2016/5/13/chartex" xmlns:cx6="http://schemas.microsoft.com/office/drawing/2016/5/12/chartex" xmlns:cx5="http://schemas.microsoft.com/office/drawing/2016/5/11/chartex" xmlns:cx4="http://schemas.microsoft.com/office/drawing/2016/5/10/chartex" xmlns:cx3="http://schemas.microsoft.com/office/drawing/2016/5/9/chartex" xmlns:cx2="http://schemas.microsoft.com/office/drawing/2015/10/21/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:wpc="http://schemas.microsoft.com/office/word/2010/wordprocessingCanvas"/>
+            <a14:shadowObscured xmlns:wpc="http://schemas.microsoft.com/office/word/2010/wordprocessingCanvas" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx2="http://schemas.microsoft.com/office/drawing/2015/10/21/chartex" xmlns:cx3="http://schemas.microsoft.com/office/drawing/2016/5/9/chartex" xmlns:cx4="http://schemas.microsoft.com/office/drawing/2016/5/10/chartex" xmlns:cx5="http://schemas.microsoft.com/office/drawing/2016/5/11/chartex" xmlns:cx6="http://schemas.microsoft.com/office/drawing/2016/5/12/chartex" xmlns:cx7="http://schemas.microsoft.com/office/drawing/2016/5/13/chartex" xmlns:cx8="http://schemas.microsoft.com/office/drawing/2016/5/14/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:aink="http://schemas.microsoft.com/office/drawing/2016/ink" xmlns:am3d="http://schemas.microsoft.com/office/drawing/2017/model3d" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:wp14="http://schemas.microsoft.com/office/word/2010/wordprocessingDrawing" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:w16cid="http://schemas.microsoft.com/office/word/2016/wordml/cid" xmlns:w16se="http://schemas.microsoft.com/office/word/2015/wordml/symex" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wpi="http://schemas.microsoft.com/office/word/2010/wordprocessingInk" xmlns:wne="http://schemas.microsoft.com/office/word/2006/wordml" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w10="urn:schemas-microsoft-com:office:word" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns="" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas"/>
           </a:ext>
         </a:extLst>
       </xdr:spPr>
@@ -54071,8 +54099,8 @@
         <v>86</v>
       </c>
     </row>
-    <row r="97" spans="3:38" ht="45" x14ac:dyDescent="0.25">
-      <c r="C97"/>
+    <row r="97" spans="4:10" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+      <c r="D97" s="30"/>
       <c r="E97" s="67" t="s">
         <v>87</v>
       </c>
@@ -54089,37 +54117,8 @@
         <v>92</v>
       </c>
       <c r="J97" s="65"/>
-      <c r="K97"/>
-      <c r="L97"/>
-      <c r="M97"/>
-      <c r="N97"/>
-      <c r="O97"/>
-      <c r="P97"/>
-      <c r="Q97"/>
-      <c r="R97"/>
-      <c r="S97"/>
-      <c r="T97"/>
-      <c r="U97"/>
-      <c r="V97"/>
-      <c r="W97"/>
-      <c r="X97"/>
-      <c r="Y97"/>
-      <c r="Z97"/>
-      <c r="AA97"/>
-      <c r="AB97"/>
-      <c r="AC97"/>
-      <c r="AD97"/>
-      <c r="AE97"/>
-      <c r="AF97"/>
-      <c r="AG97"/>
-      <c r="AH97"/>
-      <c r="AI97"/>
-      <c r="AJ97"/>
-      <c r="AK97"/>
-      <c r="AL97"/>
     </row>
-    <row r="98" spans="3:38" ht="30" x14ac:dyDescent="0.25">
-      <c r="C98"/>
+    <row r="98" spans="4:10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="D98" s="65" t="s">
         <v>85</v>
       </c>
@@ -54139,37 +54138,8 @@
         <v>681</v>
       </c>
       <c r="J98" s="65"/>
-      <c r="K98"/>
-      <c r="L98"/>
-      <c r="M98"/>
-      <c r="N98"/>
-      <c r="O98"/>
-      <c r="P98"/>
-      <c r="Q98"/>
-      <c r="R98"/>
-      <c r="S98"/>
-      <c r="T98"/>
-      <c r="U98"/>
-      <c r="V98"/>
-      <c r="W98"/>
-      <c r="X98"/>
-      <c r="Y98"/>
-      <c r="Z98"/>
-      <c r="AA98"/>
-      <c r="AB98"/>
-      <c r="AC98"/>
-      <c r="AD98"/>
-      <c r="AE98"/>
-      <c r="AF98"/>
-      <c r="AG98"/>
-      <c r="AH98"/>
-      <c r="AI98"/>
-      <c r="AJ98"/>
-      <c r="AK98"/>
-      <c r="AL98"/>
     </row>
-    <row r="99" spans="3:38" x14ac:dyDescent="0.25">
-      <c r="C99"/>
+    <row r="99" spans="4:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D99" t="s">
         <v>17</v>
       </c>
@@ -54188,37 +54158,9 @@
       <c r="I99" s="30">
         <v>0.62</v>
       </c>
-      <c r="K99"/>
-      <c r="L99"/>
-      <c r="M99"/>
-      <c r="N99"/>
-      <c r="O99"/>
-      <c r="P99"/>
-      <c r="Q99"/>
-      <c r="R99"/>
-      <c r="S99"/>
-      <c r="T99"/>
-      <c r="U99"/>
-      <c r="V99"/>
-      <c r="W99"/>
-      <c r="X99"/>
-      <c r="Y99"/>
-      <c r="Z99"/>
-      <c r="AA99"/>
-      <c r="AB99"/>
-      <c r="AC99"/>
-      <c r="AD99"/>
-      <c r="AE99"/>
-      <c r="AF99"/>
-      <c r="AG99"/>
-      <c r="AH99"/>
-      <c r="AI99"/>
-      <c r="AJ99"/>
-      <c r="AK99"/>
-      <c r="AL99"/>
+      <c r="J99" s="30"/>
     </row>
-    <row r="100" spans="3:38" x14ac:dyDescent="0.25">
-      <c r="C100"/>
+    <row r="100" spans="4:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D100" t="s">
         <v>83</v>
       </c>
@@ -54237,37 +54179,9 @@
       <c r="I100" s="30">
         <v>0.57999999999999996</v>
       </c>
-      <c r="K100"/>
-      <c r="L100"/>
-      <c r="M100"/>
-      <c r="N100"/>
-      <c r="O100"/>
-      <c r="P100"/>
-      <c r="Q100"/>
-      <c r="R100"/>
-      <c r="S100"/>
-      <c r="T100"/>
-      <c r="U100"/>
-      <c r="V100"/>
-      <c r="W100"/>
-      <c r="X100"/>
-      <c r="Y100"/>
-      <c r="Z100"/>
-      <c r="AA100"/>
-      <c r="AB100"/>
-      <c r="AC100"/>
-      <c r="AD100"/>
-      <c r="AE100"/>
-      <c r="AF100"/>
-      <c r="AG100"/>
-      <c r="AH100"/>
-      <c r="AI100"/>
-      <c r="AJ100"/>
-      <c r="AK100"/>
-      <c r="AL100"/>
+      <c r="J100" s="30"/>
     </row>
-    <row r="101" spans="3:38" x14ac:dyDescent="0.25">
-      <c r="C101"/>
+    <row r="101" spans="4:10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D101" t="s">
         <v>84</v>
       </c>
@@ -54286,34 +54200,7 @@
       <c r="I101" s="30">
         <v>0.64</v>
       </c>
-      <c r="K101"/>
-      <c r="L101"/>
-      <c r="M101"/>
-      <c r="N101"/>
-      <c r="O101"/>
-      <c r="P101"/>
-      <c r="Q101"/>
-      <c r="R101"/>
-      <c r="S101"/>
-      <c r="T101"/>
-      <c r="U101"/>
-      <c r="V101"/>
-      <c r="W101"/>
-      <c r="X101"/>
-      <c r="Y101"/>
-      <c r="Z101"/>
-      <c r="AA101"/>
-      <c r="AB101"/>
-      <c r="AC101"/>
-      <c r="AD101"/>
-      <c r="AE101"/>
-      <c r="AF101"/>
-      <c r="AG101"/>
-      <c r="AH101"/>
-      <c r="AI101"/>
-      <c r="AJ101"/>
-      <c r="AK101"/>
-      <c r="AL101"/>
+      <c r="J101" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -57522,10 +57409,10 @@
   <sheetPr codeName="Sheet7">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="C1:AR34"/>
+  <dimension ref="C1:AT34"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="W1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AN4" sqref="AN4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -57549,13 +57436,14 @@
     <col min="37" max="38" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="14.5703125" customWidth="1"/>
     <col min="40" max="40" width="15" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="11.7109375" customWidth="1"/>
-    <col min="42" max="42" width="12.140625" customWidth="1"/>
-    <col min="43" max="43" width="12" customWidth="1"/>
-    <col min="44" max="44" width="13.7109375" customWidth="1"/>
+    <col min="41" max="42" width="15" customWidth="1"/>
+    <col min="43" max="43" width="11.7109375" customWidth="1"/>
+    <col min="44" max="44" width="12.140625" customWidth="1"/>
+    <col min="45" max="45" width="12" customWidth="1"/>
+    <col min="46" max="46" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:44" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="3:46" ht="18.75" x14ac:dyDescent="0.3">
       <c r="C1" s="135" t="s">
         <v>201</v>
       </c>
@@ -57563,7 +57451,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C2" s="56" t="s">
         <v>197</v>
       </c>
@@ -57578,7 +57466,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="3" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C3" s="24" t="s">
         <v>198</v>
       </c>
@@ -57604,11 +57492,14 @@
       <c r="AJ3" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="AO3" s="56" t="s">
+      <c r="AN3" t="s">
+        <v>203</v>
+      </c>
+      <c r="AQ3" s="56" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:46" x14ac:dyDescent="0.25">
       <c r="D4" s="9"/>
       <c r="E4" s="96" t="s">
         <v>123</v>
@@ -57646,14 +57537,21 @@
       <c r="AK4" s="93"/>
       <c r="AL4" s="93"/>
       <c r="AM4" s="4"/>
-      <c r="AO4" s="98" t="s">
+      <c r="AN4">
+        <v>11.78</v>
+      </c>
+      <c r="AO4">
+        <f>1/((0.82+0.854)/2)</f>
+        <v>1.1947431302270013</v>
+      </c>
+      <c r="AQ4" s="98" t="s">
         <v>126</v>
       </c>
-      <c r="AP4" s="93"/>
-      <c r="AQ4" s="93"/>
-      <c r="AR4" s="4"/>
+      <c r="AR4" s="93"/>
+      <c r="AS4" s="93"/>
+      <c r="AT4" s="4"/>
     </row>
-    <row r="5" spans="3:44" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:46" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="133" t="s">
         <v>199</v>
       </c>
@@ -57700,6 +57598,9 @@
       <c r="AG5" s="103" t="s">
         <v>130</v>
       </c>
+      <c r="AH5" s="142" t="s">
+        <v>202</v>
+      </c>
       <c r="AJ5" s="101" t="s">
         <v>127</v>
       </c>
@@ -57712,20 +57613,29 @@
       <c r="AM5" s="103" t="s">
         <v>130</v>
       </c>
-      <c r="AO5" s="101" t="s">
+      <c r="AN5" s="142" t="s">
+        <v>105</v>
+      </c>
+      <c r="AO5" s="142" t="s">
+        <v>204</v>
+      </c>
+      <c r="AP5" s="142" t="s">
+        <v>205</v>
+      </c>
+      <c r="AQ5" s="101" t="s">
         <v>127</v>
       </c>
-      <c r="AP5" s="102" t="s">
+      <c r="AR5" s="102" t="s">
         <v>132</v>
       </c>
-      <c r="AQ5" s="102" t="s">
+      <c r="AS5" s="102" t="s">
         <v>133</v>
       </c>
-      <c r="AR5" s="103" t="s">
+      <c r="AT5" s="103" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C6" s="25" t="s">
         <v>134</v>
       </c>
@@ -57796,24 +57706,24 @@
         <f t="shared" si="2"/>
         <v>30656.317808219181</v>
       </c>
-      <c r="AO6" s="109">
+      <c r="AQ6" s="109">
         <f>(X19*$AH$2)</f>
         <v>0</v>
       </c>
-      <c r="AP6" s="109">
+      <c r="AR6" s="109">
         <f>(Y19*$AH$2)</f>
         <v>136.19288159999999</v>
       </c>
-      <c r="AQ6" s="109">
-        <f>AP6</f>
+      <c r="AS6" s="109">
+        <f>AR6</f>
         <v>136.19288159999999</v>
       </c>
-      <c r="AR6" s="109">
+      <c r="AT6" s="109">
         <f>(AA19*$AH$2)</f>
         <v>154.41587280000002</v>
       </c>
     </row>
-    <row r="7" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C7" s="25" t="s">
         <v>137</v>
       </c>
@@ -57900,12 +57810,12 @@
         <f t="shared" si="2"/>
         <v>27948.981741780826</v>
       </c>
-      <c r="AO7" s="26"/>
-      <c r="AP7" s="111"/>
-      <c r="AQ7" s="111"/>
-      <c r="AR7" s="112"/>
+      <c r="AQ7" s="26"/>
+      <c r="AR7" s="111"/>
+      <c r="AS7" s="111"/>
+      <c r="AT7" s="112"/>
     </row>
-    <row r="8" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C8" s="25" t="s">
         <v>140</v>
       </c>
@@ -57996,7 +57906,7 @@
         <v>25735.978800000001</v>
       </c>
     </row>
-    <row r="9" spans="3:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="25" t="s">
         <v>144</v>
       </c>
@@ -58082,7 +57992,7 @@
         <v>23814.210877397261</v>
       </c>
     </row>
-    <row r="10" spans="3:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:46" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="25" t="s">
         <v>146</v>
       </c>
@@ -58168,7 +58078,7 @@
         <v>21969.083749315065</v>
       </c>
     </row>
-    <row r="11" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C11" s="25" t="s">
         <v>148</v>
       </c>
@@ -58217,6 +58127,9 @@
         <f t="shared" si="1"/>
         <v>1524.6575342465753</v>
       </c>
+      <c r="AH11" s="107">
+        <v>1454.6086639245243</v>
+      </c>
       <c r="AI11" s="56">
         <v>2020</v>
       </c>
@@ -58236,8 +58149,17 @@
         <f t="shared" si="2"/>
         <v>20309.810547945206</v>
       </c>
+      <c r="AN11" s="143">
+        <f>AH11*$AN$4</f>
+        <v>17135.290061030897</v>
+      </c>
+      <c r="AO11" s="143">
+        <f>AN11*$AO$4</f>
+        <v>20472.270084863678</v>
+      </c>
+      <c r="AP11" s="143"/>
     </row>
-    <row r="12" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C12" s="25" t="s">
         <v>150</v>
       </c>
@@ -58290,6 +58212,9 @@
         <f t="shared" si="1"/>
         <v>1407</v>
       </c>
+      <c r="AH12" s="107">
+        <v>1364.5016550659996</v>
+      </c>
       <c r="AI12" s="56">
         <v>2021</v>
       </c>
@@ -58309,8 +58234,17 @@
         <f t="shared" si="2"/>
         <v>18742.506300000001</v>
       </c>
+      <c r="AN12" s="143">
+        <f t="shared" ref="AN12:AN26" si="7">AH12*$AN$4</f>
+        <v>16073.829496677474</v>
+      </c>
+      <c r="AO12" s="143">
+        <f t="shared" ref="AO12:AO26" si="8">AN12*$AO$4</f>
+        <v>19204.09736759555</v>
+      </c>
+      <c r="AP12" s="143"/>
     </row>
-    <row r="13" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C13" s="26" t="s">
         <v>151</v>
       </c>
@@ -58366,6 +58300,9 @@
         <f t="shared" si="1"/>
         <v>1301.1369863013699</v>
       </c>
+      <c r="AH13" s="107">
+        <v>1274.394646207475</v>
+      </c>
       <c r="AI13" s="56">
         <v>2022</v>
       </c>
@@ -58385,8 +58322,17 @@
         <f t="shared" si="2"/>
         <v>17332.315680821917</v>
       </c>
+      <c r="AN13" s="143">
+        <f t="shared" si="7"/>
+        <v>15012.368932324054</v>
+      </c>
+      <c r="AO13" s="143">
+        <f t="shared" si="8"/>
+        <v>17935.924650327426</v>
+      </c>
+      <c r="AP13" s="143"/>
     </row>
-    <row r="14" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C14" s="25" t="s">
         <v>153</v>
       </c>
@@ -58467,6 +58413,9 @@
         <f t="shared" si="1"/>
         <v>1212.5342465753424</v>
       </c>
+      <c r="AH14" s="107">
+        <v>1184.2876373489507</v>
+      </c>
       <c r="AI14" s="56">
         <v>2023</v>
       </c>
@@ -58486,8 +58435,17 @@
         <f t="shared" si="2"/>
         <v>16152.047445205479</v>
       </c>
+      <c r="AN14" s="143">
+        <f t="shared" si="7"/>
+        <v>13950.908367970638</v>
+      </c>
+      <c r="AO14" s="143">
+        <f t="shared" si="8"/>
+        <v>16667.751933059306</v>
+      </c>
+      <c r="AP14" s="143"/>
     </row>
-    <row r="15" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C15" s="25" t="s">
         <v>155</v>
       </c>
@@ -58525,15 +58483,15 @@
         <v>3140</v>
       </c>
       <c r="Y15" s="117">
-        <f t="shared" ref="Y15:AA16" si="7">F15*(F$8*1000)</f>
+        <f t="shared" ref="Y15:AA16" si="9">F15*(F$8*1000)</f>
         <v>30750</v>
       </c>
       <c r="Z15" s="117">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>156000</v>
       </c>
       <c r="AA15" s="117">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>11200000</v>
       </c>
       <c r="AC15" s="56">
@@ -58555,6 +58513,9 @@
         <f t="shared" si="1"/>
         <v>1141.0479452054797</v>
       </c>
+      <c r="AH15" s="107">
+        <v>1094.1806284904262</v>
+      </c>
       <c r="AI15" s="56">
         <v>2024</v>
       </c>
@@ -58574,8 +58535,17 @@
         <f t="shared" si="2"/>
         <v>15199.785573287674</v>
       </c>
+      <c r="AN15" s="143">
+        <f t="shared" si="7"/>
+        <v>12889.44780361722</v>
+      </c>
+      <c r="AO15" s="143">
+        <f t="shared" si="8"/>
+        <v>15399.579215791184</v>
+      </c>
+      <c r="AP15" s="143"/>
     </row>
-    <row r="16" spans="3:44" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:46" x14ac:dyDescent="0.25">
       <c r="C16" s="26" t="s">
         <v>156</v>
       </c>
@@ -58616,15 +58586,15 @@
         <v>2000</v>
       </c>
       <c r="Y16" s="117">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>42625</v>
       </c>
       <c r="Z16" s="117">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>416000</v>
       </c>
       <c r="AA16" s="117">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>22800000</v>
       </c>
       <c r="AC16" s="56">
@@ -58646,6 +58616,9 @@
         <f t="shared" si="1"/>
         <v>1064.3835616438357</v>
       </c>
+      <c r="AH16" s="107">
+        <v>1004.0736196319019</v>
+      </c>
       <c r="AI16" s="56">
         <v>2025</v>
       </c>
@@ -58665,8 +58638,17 @@
         <f t="shared" si="2"/>
         <v>14178.546986301371</v>
       </c>
+      <c r="AN16" s="143">
+        <f t="shared" si="7"/>
+        <v>11827.987239263804</v>
+      </c>
+      <c r="AO16" s="143">
+        <f t="shared" si="8"/>
+        <v>14131.406498523065</v>
+      </c>
+      <c r="AP16" s="143"/>
     </row>
-    <row r="17" spans="3:42" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:44" x14ac:dyDescent="0.25">
       <c r="C17" s="26" t="s">
         <v>157</v>
       </c>
@@ -58747,6 +58729,9 @@
         <f t="shared" si="1"/>
         <v>985.41780821917814</v>
       </c>
+      <c r="AH17" s="107">
+        <v>966.70548255321955</v>
+      </c>
       <c r="AI17" s="56">
         <v>2026</v>
       </c>
@@ -58766,8 +58751,17 @@
         <f t="shared" si="2"/>
         <v>13126.652081506851</v>
       </c>
+      <c r="AN17" s="143">
+        <f t="shared" si="7"/>
+        <v>11387.790584476927</v>
+      </c>
+      <c r="AO17" s="143">
+        <f t="shared" si="8"/>
+        <v>13605.484569267535</v>
+      </c>
+      <c r="AP17" s="143"/>
     </row>
-    <row r="18" spans="3:42" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:44" x14ac:dyDescent="0.25">
       <c r="C18" s="25" t="s">
         <v>159</v>
       </c>
@@ -58812,6 +58806,9 @@
         <f t="shared" si="1"/>
         <v>901.27397260273983</v>
       </c>
+      <c r="AH18" s="107">
+        <v>929.33734547453719</v>
+      </c>
       <c r="AI18" s="56">
         <v>2027</v>
       </c>
@@ -58831,8 +58828,17 @@
         <f t="shared" si="2"/>
         <v>12005.780461643837</v>
       </c>
+      <c r="AN18" s="143">
+        <f t="shared" si="7"/>
+        <v>10947.593929690047</v>
+      </c>
+      <c r="AO18" s="143">
+        <f t="shared" si="8"/>
+        <v>13079.562640012005</v>
+      </c>
+      <c r="AP18" s="143"/>
     </row>
-    <row r="19" spans="3:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="25" t="s">
         <v>160</v>
       </c>
@@ -58898,6 +58904,9 @@
         <f t="shared" si="1"/>
         <v>835.54109589041093</v>
       </c>
+      <c r="AH19" s="107">
+        <v>891.96920839585493</v>
+      </c>
       <c r="AI19" s="56">
         <v>2028</v>
       </c>
@@ -58917,8 +58926,17 @@
         <f t="shared" si="2"/>
         <v>11130.159384246575</v>
       </c>
+      <c r="AN19" s="143">
+        <f t="shared" si="7"/>
+        <v>10507.397274903171</v>
+      </c>
+      <c r="AO19" s="143">
+        <f t="shared" si="8"/>
+        <v>12553.640710756477</v>
+      </c>
+      <c r="AP19" s="143"/>
     </row>
-    <row r="20" spans="3:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C20" s="25" t="s">
         <v>162</v>
       </c>
@@ -58984,6 +59002,9 @@
         <f t="shared" si="1"/>
         <v>791.67123287671222</v>
       </c>
+      <c r="AH20" s="107">
+        <v>854.60107131717268</v>
+      </c>
       <c r="AI20" s="56">
         <v>2029</v>
       </c>
@@ -59003,8 +59024,17 @@
         <f t="shared" si="2"/>
         <v>10545.773326027396</v>
       </c>
+      <c r="AN20" s="143">
+        <f t="shared" si="7"/>
+        <v>10067.200620116293</v>
+      </c>
+      <c r="AO20" s="143">
+        <f t="shared" si="8"/>
+        <v>12027.718781500949</v>
+      </c>
+      <c r="AP20" s="143"/>
     </row>
-    <row r="21" spans="3:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C21" s="25" t="s">
         <v>164</v>
       </c>
@@ -59055,6 +59085,9 @@
         <f t="shared" si="1"/>
         <v>747.94520547945194</v>
       </c>
+      <c r="AH21" s="107">
+        <v>817.23293423848986</v>
+      </c>
       <c r="AI21" s="56">
         <v>2030</v>
       </c>
@@ -59074,8 +59107,19 @@
         <f t="shared" si="2"/>
         <v>9963.3032876712314</v>
       </c>
+      <c r="AN21" s="143">
+        <f t="shared" si="7"/>
+        <v>9627.0039653294098</v>
+      </c>
+      <c r="AO21" s="143">
+        <f t="shared" si="8"/>
+        <v>11501.796852245412</v>
+      </c>
+      <c r="AP21" s="143">
+        <v>14144</v>
+      </c>
     </row>
-    <row r="22" spans="3:42" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:44" x14ac:dyDescent="0.25">
       <c r="C22" s="25" t="s">
         <v>165</v>
       </c>
@@ -59109,16 +59153,19 @@
         <v>857.73674806432405</v>
       </c>
       <c r="AE22" s="107">
-        <f t="shared" ref="AE22:AG26" si="8">Y$10*$U22</f>
+        <f t="shared" ref="AE22:AG26" si="10">Y$10*$U22</f>
         <v>629.99285288862416</v>
       </c>
       <c r="AF22" s="107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>920.58814770696847</v>
       </c>
       <c r="AG22" s="107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>714.28767123287673</v>
+      </c>
+      <c r="AH22" s="107">
+        <v>807.01752256050895</v>
       </c>
       <c r="AI22" s="56">
         <v>2031</v>
@@ -59139,8 +59186,17 @@
         <f>(AG22*$AH$2)</f>
         <v>9514.9546397260274</v>
       </c>
+      <c r="AN22" s="143">
+        <f t="shared" si="7"/>
+        <v>9506.6664157627947</v>
+      </c>
+      <c r="AO22" s="143">
+        <f t="shared" si="8"/>
+        <v>11358.024391592347</v>
+      </c>
+      <c r="AP22" s="143"/>
     </row>
-    <row r="23" spans="3:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C23" s="25" t="s">
         <v>160</v>
       </c>
@@ -59176,16 +59232,19 @@
         <v>838.39189994044068</v>
       </c>
       <c r="AE23" s="107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>615.78439547349603</v>
       </c>
       <c r="AF23" s="107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>899.8257891602143</v>
       </c>
       <c r="AG23" s="107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>698.17808219178073</v>
+      </c>
+      <c r="AH23" s="107">
+        <v>796.80211088252781</v>
       </c>
       <c r="AI23" s="56">
         <v>2032</v>
@@ -59206,8 +59265,17 @@
         <f>(AG23*$AH$2)</f>
         <v>9300.3604150684914</v>
       </c>
+      <c r="AN23" s="143">
+        <f t="shared" si="7"/>
+        <v>9386.3288661961778</v>
+      </c>
+      <c r="AO23" s="143">
+        <f t="shared" si="8"/>
+        <v>11214.251930939281</v>
+      </c>
+      <c r="AP23" s="143"/>
     </row>
-    <row r="24" spans="3:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C24" s="25" t="s">
         <v>162</v>
       </c>
@@ -59246,16 +59314,19 @@
         <v>825.95592614651582</v>
       </c>
       <c r="AE24" s="107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>606.65038713519948</v>
       </c>
       <c r="AF24" s="107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>886.47855866587258</v>
       </c>
       <c r="AG24" s="107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>687.82191780821915</v>
+      </c>
+      <c r="AH24" s="107">
+        <v>786.58669920454668</v>
       </c>
       <c r="AI24" s="56">
         <v>2033</v>
@@ -59276,8 +59347,17 @@
         <f>(AG24*$AH$2)</f>
         <v>9162.4069849315074</v>
       </c>
+      <c r="AN24" s="143">
+        <f t="shared" si="7"/>
+        <v>9265.9913166295592</v>
+      </c>
+      <c r="AO24" s="143">
+        <f t="shared" si="8"/>
+        <v>11070.479470286213</v>
+      </c>
+      <c r="AP24" s="143"/>
     </row>
-    <row r="25" spans="3:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C25" s="25" t="s">
         <v>164</v>
       </c>
@@ -59316,16 +59396,19 @@
         <v>829.06491959499704</v>
       </c>
       <c r="AE25" s="107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>608.93388921977362</v>
       </c>
       <c r="AF25" s="107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>889.81536628945798</v>
       </c>
       <c r="AG25" s="107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>690.41095890410963</v>
+      </c>
+      <c r="AH25" s="107">
+        <v>776.37128752656554</v>
       </c>
       <c r="AI25" s="56">
         <v>2034</v>
@@ -59346,8 +59429,17 @@
         <f>(AG25*$AH$2)</f>
         <v>9196.8953424657539</v>
       </c>
+      <c r="AN25" s="143">
+        <f t="shared" si="7"/>
+        <v>9145.6537670629423</v>
+      </c>
+      <c r="AO25" s="143">
+        <f t="shared" si="8"/>
+        <v>10926.707009633146</v>
+      </c>
+      <c r="AP25" s="143"/>
     </row>
-    <row r="26" spans="3:42" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:44" x14ac:dyDescent="0.25">
       <c r="C26" s="124" t="s">
         <v>166</v>
       </c>
@@ -59401,16 +59493,19 @@
         <v>829.06491959499704</v>
       </c>
       <c r="AE26" s="107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>608.93388921977362</v>
       </c>
       <c r="AF26" s="107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>889.81536628945798</v>
       </c>
       <c r="AG26" s="107">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>690.41095890410963</v>
+      </c>
+      <c r="AH26" s="107">
+        <v>766.1558758485844</v>
       </c>
       <c r="AI26" s="56">
         <v>2035</v>
@@ -59431,8 +59526,17 @@
         <f>(AG26*$AH$2)</f>
         <v>9196.8953424657539</v>
       </c>
+      <c r="AN26" s="143">
+        <f t="shared" si="7"/>
+        <v>9025.3162174963236</v>
+      </c>
+      <c r="AO26" s="143">
+        <f t="shared" si="8"/>
+        <v>10782.934548980076</v>
+      </c>
+      <c r="AP26" s="143"/>
     </row>
-    <row r="27" spans="3:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C27" s="25" t="s">
         <v>168</v>
       </c>
@@ -59465,7 +59569,7 @@
       <c r="AL27" s="111"/>
       <c r="AM27" s="112"/>
     </row>
-    <row r="28" spans="3:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C28" s="25" t="s">
         <v>169</v>
       </c>
@@ -59480,7 +59584,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="29" spans="3:42" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:44" x14ac:dyDescent="0.25">
       <c r="C29" s="25" t="s">
         <v>170</v>
       </c>
@@ -59497,7 +59601,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="3:42" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:44" x14ac:dyDescent="0.25">
       <c r="C30" s="25" t="s">
         <v>172</v>
       </c>
@@ -59528,11 +59632,11 @@
       <c r="AN30">
         <v>2035</v>
       </c>
-      <c r="AP30" t="s">
+      <c r="AR30" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="31" spans="3:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C31" s="25" t="s">
         <v>174</v>
       </c>
@@ -59553,26 +59657,28 @@
         <v>36812.969624776655</v>
       </c>
       <c r="AK31" s="129">
-        <f t="shared" ref="AK31:AN34" si="9">INDEX($AJ$6:$AM$26,MATCH(AK$30,$AI$6:$AI$26,0),MATCH($AI31,$AJ$5:$AM$5,0))</f>
+        <f t="shared" ref="AK31:AN34" si="11">INDEX($AJ$6:$AM$26,MATCH(AK$30,$AI$6:$AI$26,0),MATCH($AI31,$AJ$5:$AM$5,0))</f>
         <v>24388.592376414534</v>
       </c>
       <c r="AL31" s="129">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>17025.998451459203</v>
       </c>
       <c r="AM31" s="129">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>11964.215128052412</v>
       </c>
       <c r="AN31" s="129">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>11043.890887432995</v>
       </c>
-      <c r="AP31" t="s">
+      <c r="AO31" s="129"/>
+      <c r="AP31" s="129"/>
+      <c r="AR31" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="32" spans="3:42" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:44" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C32" s="25" t="s">
         <v>163</v>
       </c>
@@ -59601,7 +59707,7 @@
         <v>27038.491483025609</v>
       </c>
       <c r="AK32" s="129">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>17913.000607504466</v>
       </c>
       <c r="AL32" s="129">
@@ -59613,14 +59719,16 @@
         <v>8787.5097319833221</v>
       </c>
       <c r="AN32" s="129">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>8111.5474449076828</v>
       </c>
-      <c r="AP32" t="s">
+      <c r="AO32" s="129"/>
+      <c r="AP32" s="129"/>
+      <c r="AR32" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="33" spans="3:42" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:44" x14ac:dyDescent="0.25">
       <c r="C33" s="25" t="s">
         <v>178</v>
       </c>
@@ -59641,26 +59749,28 @@
         <v>27038.491483025609</v>
       </c>
       <c r="AK33" s="129">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>17913.000607504466</v>
       </c>
       <c r="AL33" s="129">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>12505.302310899344</v>
       </c>
       <c r="AM33" s="129">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>8787.5097319833221</v>
       </c>
       <c r="AN33" s="129">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>8111.5474449076828</v>
       </c>
-      <c r="AP33" t="s">
+      <c r="AO33" s="129"/>
+      <c r="AP33" s="129"/>
+      <c r="AR33" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="34" spans="3:42" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:44" x14ac:dyDescent="0.25">
       <c r="C34" s="26"/>
       <c r="D34" s="111"/>
       <c r="E34" s="111"/>
@@ -59677,22 +59787,24 @@
         <v>30656.317808219181</v>
       </c>
       <c r="AK34" s="129">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>20309.810547945206</v>
       </c>
       <c r="AL34" s="129">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>14178.546986301371</v>
       </c>
       <c r="AM34" s="129">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>9963.3032876712314</v>
       </c>
       <c r="AN34" s="129">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>9196.8953424657539</v>
       </c>
-      <c r="AP34" t="s">
+      <c r="AO34" s="129"/>
+      <c r="AP34" s="129"/>
+      <c r="AR34" t="s">
         <v>180</v>
       </c>
     </row>
@@ -59709,7 +59821,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:Q44"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="110" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView showRuler="0" zoomScale="110" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
